--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597613B6-9872-4451-8C84-84AF0EEAE590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C70420-5374-494E-A713-69D27842E909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -26,32 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>R-TYPE</t>
   </si>
   <si>
-    <t>OPCODE</t>
-  </si>
-  <si>
-    <t>DESTINATION</t>
-  </si>
-  <si>
-    <t>SOURCE_2</t>
-  </si>
-  <si>
-    <t>SOURCE_1</t>
-  </si>
-  <si>
     <t>OAP</t>
   </si>
   <si>
     <t>I-TYPE</t>
   </si>
   <si>
-    <t>CONSTANT</t>
-  </si>
-  <si>
     <t>J-TYPE</t>
   </si>
   <si>
@@ -61,29 +46,291 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>COMP</t>
-  </si>
-  <si>
     <t>Instruction</t>
   </si>
   <si>
-    <t>SHIFT</t>
-  </si>
-  <si>
-    <t>DST = SRC_1 + SRC_2</t>
-  </si>
-  <si>
-    <t>DST = SRC_1 - SRC_2</t>
-  </si>
-  <si>
-    <t>DST = 1 IF SRC_1 == SRC_2</t>
+    <t>Operands</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>ADDI</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ANDI</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>BREQ</t>
+  </si>
+  <si>
+    <t>BRNE</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>DESTINATION (Rd)</t>
+  </si>
+  <si>
+    <t>SOURCE_1 (Rs)</t>
+  </si>
+  <si>
+    <t>SOURCE_2 (Rt)</t>
+  </si>
+  <si>
+    <t>OPCODE (Op)</t>
+  </si>
+  <si>
+    <t>Rd, Rs, Rt</t>
+  </si>
+  <si>
+    <t>CONSTANT ( C )</t>
+  </si>
+  <si>
+    <t>Rd, Rs, C</t>
+  </si>
+  <si>
+    <t>Rd, Rs ,C</t>
+  </si>
+  <si>
+    <t>Rd, Rs ,D</t>
+  </si>
+  <si>
+    <t>Add two registers and a carry (Cin)</t>
+  </si>
+  <si>
+    <t>Add a register and a constant ( C )</t>
+  </si>
+  <si>
+    <t>Subtract two registers and a carry (Cin)</t>
+  </si>
+  <si>
+    <t>Logical OR two registers</t>
+  </si>
+  <si>
+    <t>Logical XOR two registers</t>
+  </si>
+  <si>
+    <t>Logical AND two registers and a constant ( C )</t>
+  </si>
+  <si>
+    <t>Logical AND two registers</t>
+  </si>
+  <si>
+    <t>Logical OR two registers and a constant ( C )</t>
+  </si>
+  <si>
+    <t>Multiply two registers</t>
+  </si>
+  <si>
+    <t>Divide two registers</t>
+  </si>
+  <si>
+    <t>Load 16-bit word from data memory</t>
+  </si>
+  <si>
+    <t>Store 16-bit word to data memory</t>
+  </si>
+  <si>
+    <t>Branch if Rd equals Rs</t>
+  </si>
+  <si>
+    <t>Branch if Rd not equal to Rs</t>
+  </si>
+  <si>
+    <t>Rd, Rs, Rt, Cin</t>
+  </si>
+  <si>
+    <t>Logical shift left Rs and save into Rd with constant amount ( C )</t>
+  </si>
+  <si>
+    <t>Logical shift right Rs and save into Rd  with constant amount ( C )</t>
+  </si>
+  <si>
+    <t>Arithmetic shift right Rs and save into Rd  with constant amount ( C )</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Rd, Rs</t>
+  </si>
+  <si>
+    <t>Logical invert register Rs</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Rd &lt;= Rs + Rt + Cin</t>
+  </si>
+  <si>
+    <t>Rd &lt;= Rs + C</t>
+  </si>
+  <si>
+    <t>Rd &lt;= Rs - Rt - Cin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd &lt;= Rs ^ Rt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd &lt;= Rs ^ C </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd &lt;= Rs </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rt </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd &lt;= Rs ⊕ Rt </t>
+  </si>
+  <si>
+    <r>
+      <t>Rd &lt;= Rs</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C</t>
+    </r>
+  </si>
+  <si>
+    <t>Rd &lt;= !Rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd &lt;= Rs * Rt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd &lt;= Rs / Rt </t>
+  </si>
+  <si>
+    <t>Rd &lt;= Rs &lt;&lt; C</t>
+  </si>
+  <si>
+    <t>Rd &lt;= Rs &gt;&gt; C</t>
+  </si>
+  <si>
+    <t>Rd &lt;= MEM [Rs + C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM [Rs + C] &lt;= Rd  </t>
+  </si>
+  <si>
+    <t>if Rd-Rs=0, i.e. Z=1, PC &lt;= PC + D</t>
+  </si>
+  <si>
+    <t>if Rd-Rs!=0, i.e. Z=0, PC &lt;= PC + D</t>
+  </si>
+  <si>
+    <t>Jump to address location (D)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>PC &lt;= PC+D</t>
+  </si>
+  <si>
+    <t>** D is the jump or branch Destinaion Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +374,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -146,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -363,13 +618,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,11 +649,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,13 +697,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -413,26 +712,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -719,147 +1006,143 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="15" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10</v>
-      </c>
+      <c r="B10" s="15">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>35</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -868,83 +1151,496 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="1" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="14">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="14">
+        <v>7</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="14">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="14">
+        <v>9</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="14">
+        <v>11</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C70420-5374-494E-A713-69D27842E909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DD339-7D5C-4E83-8D56-4FB1E96A263F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>R-TYPE</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Opcode</t>
-  </si>
-  <si>
-    <t>Function</t>
   </si>
   <si>
     <t>ADDI</t>
@@ -323,7 +320,7 @@
     <t>PC &lt;= PC+D</t>
   </si>
   <si>
-    <t>** D is the jump or branch Destinaion Address</t>
+    <t>** D is the jump or branch Destination Address</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -444,51 +441,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -619,14 +571,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -635,12 +646,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,76 +690,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +735,107 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -738,6 +846,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6B5456A-DBFF-4888-9B1C-58322DED1168}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="9">
+  <autoFilter ref="A1:G21" xr:uid="{E04D101D-B61E-41ED-B6C0-1ACD0FC422DF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,7 +1130,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,36 +1148,36 @@
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1068,34 +1192,34 @@
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="11">
         <v>6</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="27"/>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1108,26 +1232,26 @@
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="18">
         <v>12</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1136,13 +1260,13 @@
     <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1153,494 +1277,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="8">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="8">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G18" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="8">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G19" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="14">
-        <v>4</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="14">
-        <v>6</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="14">
-        <v>7</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="14">
-        <v>8</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="14">
-        <v>9</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="14">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="14">
-        <v>11</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:G21"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DD339-7D5C-4E83-8D56-4FB1E96A263F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA122B-B9EA-4717-AD77-9C0F48B0E209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>R-TYPE</t>
   </si>
@@ -94,12 +94,6 @@
     <t>SRA</t>
   </si>
   <si>
-    <t>LOAD</t>
-  </si>
-  <si>
-    <t>STORE</t>
-  </si>
-  <si>
     <t>BREQ</t>
   </si>
   <si>
@@ -200,15 +194,6 @@
   </si>
   <si>
     <t>Arithmetic shift right Rs and save into Rd  with constant amount ( C )</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>Rd, Rs</t>
-  </si>
-  <si>
-    <t>Logical invert register Rs</t>
   </si>
   <si>
     <t>X</t>
@@ -284,9 +269,6 @@
     </r>
   </si>
   <si>
-    <t>Rd &lt;= !Rs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rd &lt;= Rs * Rt </t>
   </si>
   <si>
@@ -299,12 +281,6 @@
     <t>Rd &lt;= Rs &gt;&gt; C</t>
   </si>
   <si>
-    <t>Rd &lt;= MEM [Rs + C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEM [Rs + C] &lt;= Rd  </t>
-  </si>
-  <si>
     <t>if Rd-Rs=0, i.e. Z=1, PC &lt;= PC + D</t>
   </si>
   <si>
@@ -321,6 +297,63 @@
   </si>
   <si>
     <t>** D is the jump or branch Destination Address</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>LWU</t>
+  </si>
+  <si>
+    <t>LWL</t>
+  </si>
+  <si>
+    <t>SWU</t>
+  </si>
+  <si>
+    <t>SWL</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>If Rs&lt;Rt, Rd=1, else Rd=0.</t>
+  </si>
+  <si>
+    <t>Rs-Rt, Rd &lt;= N (zero flag)</t>
+  </si>
+  <si>
+    <t>[Rd,Rd+1] &lt;= MEM [Rs + C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM [Rs + C] &lt;= [Rd,Rd+1]  </t>
+  </si>
+  <si>
+    <t>Load upper byte from data memory location</t>
+  </si>
+  <si>
+    <t>Load lower byte from data memory location</t>
+  </si>
+  <si>
+    <t>[Rd,-] &lt;= MEM [Rs + C]</t>
+  </si>
+  <si>
+    <t>[-,Rd] &lt;= MEM [Rs + C]</t>
+  </si>
+  <si>
+    <t>Store 8-bit data to upper byte of data memory location</t>
+  </si>
+  <si>
+    <t>Store 8-bit data to lower byte of data memory location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM [Rs + C] &lt;= [Rd,-]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM [Rs + C] &lt;= [-,Rd]  </t>
   </si>
 </sst>
 </file>
@@ -646,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,17 +711,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -717,17 +750,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -736,34 +775,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -835,6 +846,34 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -849,16 +888,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6B5456A-DBFF-4888-9B1C-58322DED1168}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="9">
-  <autoFilter ref="A1:G21" xr:uid="{E04D101D-B61E-41ED-B6C0-1ACD0FC422DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6B5456A-DBFF-4888-9B1C-58322DED1168}" name="Table2" displayName="Table2" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G25" xr:uid="{E04D101D-B61E-41ED-B6C0-1ACD0FC422DF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1166,16 +1205,16 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -1201,25 +1240,25 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="24">
         <v>6</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,10 +1283,10 @@
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1275,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,12 +1331,12 @@
     <col min="7" max="7" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -1315,21 +1354,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -1338,44 +1377,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1384,21 +1423,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1407,44 +1446,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1453,44 +1492,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1499,21 +1538,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>58</v>
+    <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1522,21 +1561,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1545,21 +1584,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1568,200 +1607,310 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8">
         <v>5</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8">
         <v>6</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="29">
+        <v>8</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="8">
-        <v>8</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="8">
-        <v>9</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>25</v>
-      </c>
       <c r="B19" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8">
         <v>10</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="29">
+        <v>11</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="8">
-        <v>11</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="14">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="8">
+        <v>15</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA122B-B9EA-4717-AD77-9C0F48B0E209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDBCD8-81B9-4E88-BB05-18F150ACCE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,6 +723,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,12 +766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,13 +1178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -1222,13 +1222,13 @@
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1240,10 +1240,10 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="26">
         <v>6</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1255,42 +1255,42 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <v>12</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,22 +1703,22 @@
       <c r="A17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="16">
         <v>8</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1726,22 +1726,22 @@
       <c r="A18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="16">
         <v>9</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1772,22 +1772,22 @@
       <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="15" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="16">
         <v>11</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="15" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1885,32 +1885,32 @@
     </row>
     <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDBCD8-81B9-4E88-BB05-18F150ACCE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3EE17-6BCF-4075-A0DF-C4ED85E152BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,9 +269,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rd &lt;= Rs * Rt </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rd &lt;= Rs / Rt </t>
   </si>
   <si>
@@ -281,12 +278,6 @@
     <t>Rd &lt;= Rs &gt;&gt; C</t>
   </si>
   <si>
-    <t>if Rd-Rs=0, i.e. Z=1, PC &lt;= PC + D</t>
-  </si>
-  <si>
-    <t>if Rd-Rs!=0, i.e. Z=0, PC &lt;= PC + D</t>
-  </si>
-  <si>
     <t>Jump to address location (D)</t>
   </si>
   <si>
@@ -354,6 +345,15 @@
   </si>
   <si>
     <t xml:space="preserve">MEM [Rs + C] &lt;= [-,Rd]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Rd,Rd+1] &lt;= Rs * Rt </t>
+  </si>
+  <si>
+    <t>if Rs-Rd=0, i.e. Z=1, PC &lt;= PC + D</t>
+  </si>
+  <si>
+    <t>if Rs-Rd!=0, i.e. Z=0, PC &lt;= PC + D</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
@@ -1549,10 +1549,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -1644,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="8">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8">
         <v>6</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>27</v>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" s="8">
         <v>7</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>27</v>
@@ -1710,10 +1710,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="16">
         <v>8</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>27</v>
@@ -1733,10 +1733,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="16">
         <v>9</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>27</v>
@@ -1759,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8">
         <v>10</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>27</v>
@@ -1779,10 +1779,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" s="16">
         <v>11</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>27</v>
@@ -1802,10 +1802,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="14">
         <v>12</v>
@@ -1828,7 +1828,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F22" s="8">
         <v>13</v>
@@ -1851,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F23" s="8">
         <v>14</v>
@@ -1868,13 +1868,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F24" s="8">
         <v>15</v>
@@ -1888,29 +1888,11 @@
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3EE17-6BCF-4075-A0DF-C4ED85E152BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39EAD19-FC1C-49EF-A0E2-1D944771F780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>R-TYPE</t>
   </si>
@@ -73,9 +73,6 @@
     <t>OR</t>
   </si>
   <si>
-    <t>ORI</t>
-  </si>
-  <si>
     <t>XOR</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>Logical AND two registers</t>
-  </si>
-  <si>
-    <t>Logical OR two registers and a constant ( C )</t>
   </si>
   <si>
     <t>Multiply two registers</t>
@@ -243,32 +237,6 @@
     <t xml:space="preserve">Rd &lt;= Rs ⊕ Rt </t>
   </si>
   <si>
-    <r>
-      <t>Rd &lt;= Rs</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Rd &lt;= Rs / Rt </t>
   </si>
   <si>
@@ -354,6 +322,18 @@
   </si>
   <si>
     <t>if Rs-Rd!=0, i.e. Z=0, PC &lt;= PC + D</t>
+  </si>
+  <si>
+    <t>DMADDR</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DM_address[8:9] &lt;= C [1:0]</t>
+  </si>
+  <si>
+    <t>Set most significant 2-bits of Data Memory Address to least significant 2-bits of constant ( C )</t>
   </si>
 </sst>
 </file>
@@ -1205,16 +1185,16 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -1247,16 +1227,16 @@
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -1283,10 +1263,10 @@
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1316,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1305,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" customWidth="1"/>
@@ -1336,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -1359,16 +1339,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -1382,22 +1362,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1428,16 +1408,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1451,22 +1431,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1494,42 +1474,42 @@
     </row>
     <row r="8" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1540,19 +1520,19 @@
     </row>
     <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1563,19 +1543,19 @@
     </row>
     <row r="11" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1586,19 +1566,19 @@
     </row>
     <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1609,278 +1589,278 @@
     </row>
     <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8">
         <v>5</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="8">
         <v>6</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="8">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="16">
         <v>8</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="16">
         <v>9</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8">
         <v>10</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" s="16">
         <v>11</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F21" s="14">
         <v>12</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" s="8">
         <v>13</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8">
         <v>14</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" s="8">
         <v>15</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,7 +1868,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
